--- a/model_exports/labels/2.0_True_False_1_4.xlsx
+++ b/model_exports/labels/2.0_True_False_1_4.xlsx
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-500035862709948417</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-500685725482770433</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-497139824780787712</t>
+          <t>t-501752547083059200</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-497141925451792384</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-497161697371893760</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-497242468627124224</t>
+          <t>t-688456240490508289</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,24 +531,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-497474058641215489</t>
+          <t>t-759240736864870400</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-497485019451883520</t>
+          <t>t-760665387113472001</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,50 +557,50 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-760674522622152704</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-1032695855143370753</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-1033108055162941440</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-497136108463865857</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,50 +609,50 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -661,11 +661,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-561169293573115904</t>
+          <t>t-889549980888969217</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,46 +687,46 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-833214575512150018</t>
+          <t>t-889892042435854336</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-548786999432605696</t>
+          <t>t-890080777769283584</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-549031298929786880</t>
+          <t>t-900539002423562240</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-583290347863851008</t>
+          <t>t-900561270843334662</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,20 +739,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-585505175835648000</t>
+          <t>t-900690069668933632</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-648290405872627712</t>
+          <t>t-902187406123835394</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -765,37 +765,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-681917420068564992</t>
+          <t>t-902225607563644928</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-682618491283857408</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-738281921046675456</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-738404067647455232</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-738429326224302080</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,33 +830,33 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-738429350467543044</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,59 +869,59 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-775697386924445696</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-826627277026791424</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-918248158253273089</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-832760057259384834</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,20 +960,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-832777578633064449</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-754609055683915776</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -986,11 +986,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-1000042512319483904</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,20 +1012,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-1000115343019343872</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-1028077400779841537</t>
+          <t>t-1000762573766184961</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1038,7 +1038,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-594694315915350017</t>
+          <t>t-1001659726067830785</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,37 +1064,37 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-730338940872445952</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-731342823132274688</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1103,37 +1103,37 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1142,20 +1142,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-1022084644039258112</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1168,11 +1168,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1015939762513956864</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1181,33 +1181,33 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-847556586600095745</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-502103720327671808</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-507610683022643200</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1220,7 +1220,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-819315426853273600</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1233,7 +1233,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-934407049034846208</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,46 +1259,46 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-876870634885844994</t>
+          <t>t-985698935074369536</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-876897987485630464</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-876995236253376512</t>
+          <t>t-739238212518957060</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-739379635675271168</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,37 +1311,37 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-744529744385892352</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-744534982144757760</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-746432967740882945</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -1350,11 +1350,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-511616761545121792</t>
+          <t>t-852681395487035392</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1363,37 +1363,37 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-767772450964725760</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-751267650043387906</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-1027386544536150016</t>
+          <t>t-928952366598037506</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -1402,46 +1402,46 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-567811309744705538</t>
+          <t>t-950256330316615680</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-976076558824767489</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-626070342885249024</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,7 +1454,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-697866091025080320</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,7 +1467,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-1015939762513956864</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,33 +1480,33 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-1061557072670670850</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-1061559942140780544</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-953648628647706624</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,20 +1519,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-843394427347320833</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1031843897373278208</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,7 +1545,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,33 +1558,33 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-918095751158300672</t>
+          <t>t-1006061673487138817</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-918096410427486208</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-918845060900380672</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-923100909521068032</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,11 +1610,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-868226298719633408</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -1623,20 +1623,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-841795901764993024</t>
+          <t>t-978735824383590400</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-841877177624850434</t>
+          <t>t-973959709605662721</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-973962375287246848</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-973995114065465345</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
@@ -1688,11 +1688,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-578289267857891328</t>
+          <t>t-974310620169474048</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="n">
         <v>1</v>
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-590950091256631296</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,11 +1714,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -1727,24 +1727,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1753,33 +1753,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-1040717985516859392</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1060963338337902593</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,7 +1792,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,7 +1818,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1831,11 +1831,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-708373253648207873</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -1844,20 +1844,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-926892709188702208</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-953935668199215104</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-849724022598139904</t>
+          <t>t-953991296196149248</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-878162982953402368</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-904717770524372993</t>
+          <t>t-1042485319055155201</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-987005505154535425</t>
+          <t>t-682141165802631168</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,46 +1922,46 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-809566350368796673</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-860938986382135296</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-861076485599354880</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-994221853211267073</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,50 +1974,50 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-542093659286429696</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-559857374312529920</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
@@ -2026,11 +2026,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-559902019893202944</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-883046827251179521</t>
+          <t>t-782023965489238017</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-883048887786909698</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,20 +2065,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-883064523128791040</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-883077275679432704</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,20 +2091,20 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-1022049211108483072</t>
+          <t>t-575206069833629696</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-1022100736476360704</t>
+          <t>t-595961510528180224</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,7 +2117,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-736136204106616832</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -2130,20 +2130,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -2156,20 +2156,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-876214781744750592</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-946987966475448325</t>
+          <t>t-1040717985516859392</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,11 +2182,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-1060963338337902593</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-764015991344869376</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-1001456003551031296</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-898040952396193792</t>
+          <t>t-621875663901863937</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-898113774225301505</t>
+          <t>t-700818903744778240</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2260,11 +2260,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -2273,24 +2273,24 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-992484226795823105</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-694715871097278464</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -2299,46 +2299,46 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-604384366886834177</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B146" t="n">
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-604797500965265408</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,7 +2351,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-605112787141033985</t>
+          <t>t-872405308236337153</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -2364,37 +2364,37 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-605369768720396288</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-745382805253677057</t>
+          <t>t-977485288892059648</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-815857432882769920</t>
+          <t>t-860527262709493760</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,33 +2403,33 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-816077181575106560</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B152" t="n">
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-859901667361345536</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-905607663798636547</t>
+          <t>t-757613409047343105</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,33 +2442,33 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-906292765633515520</t>
+          <t>t-764530848079155200</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-906696780133388288</t>
+          <t>t-764927216257949696</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-815857432882769920</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-816077181575106560</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-905607663798636547</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,11 +2507,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-956329812573945857</t>
+          <t>t-906292765633515520</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -2520,11 +2520,11 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-998567520113225733</t>
+          <t>t-906696780133388288</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -2533,20 +2533,20 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-911712205657317376</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-1016477854391992320</t>
+          <t>t-978842874749046784</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-979067875213234176</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,27 +2572,27 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-593171698846830592</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-611619605899939841</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -2611,20 +2611,20 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-756927547049320448</t>
+          <t>t-760920272639852545</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-886785151694512128</t>
+          <t>t-760967260039106560</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,7 +2637,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-886797636501520384</t>
+          <t>t-760972532421984261</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-886952472035549185</t>
+          <t>t-760978989359833088</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,7 +2663,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-887152237432061952</t>
+          <t>t-761017815637696513</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-887308832208293888</t>
+          <t>t-761048712214818816</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,24 +2689,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-888147986982649856</t>
+          <t>t-761049587066867712</t>
         </is>
       </c>
       <c r="B174" t="n">
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-891394338445553666</t>
+          <t>t-761050328493985794</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -2715,24 +2715,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-891401235391066112</t>
+          <t>t-761057847262142465</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-891671460804259840</t>
+          <t>t-891394338445553666</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -2741,7 +2741,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-891695041609162754</t>
+          <t>t-891401235391066112</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-892069950281711617</t>
+          <t>t-891671460804259840</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-892901315642146816</t>
+          <t>t-891695041609162754</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,59 +2780,59 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-967489391517192192</t>
+          <t>t-892069950281711617</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-892901315642146816</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,85 +2845,85 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-1050781684117987329</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-580289963599765504</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B187" t="n">
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-708952691926548480</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-745683270160027648</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-651743798721122304</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,7 +2936,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-903533073358352385</t>
+          <t>t-673837939248472064</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-903589529143189504</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,24 +2988,24 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-919174352289005568</t>
+          <t>t-716748651113091072</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-919528265718665216</t>
+          <t>t-716774298296389632</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -3014,7 +3014,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-968863674306834432</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -3027,24 +3027,24 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-799654742746165248</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -3053,33 +3053,33 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-894936422980964352</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-986933673697120257</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1026228357996969984</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,20 +3105,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-1049984041888505856</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,20 +3144,20 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-1051063984038776837</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-561705902466957314</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,46 +3170,46 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B213" t="n">
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,24 +3248,24 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1014627656082579457</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -3274,7 +3274,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,7 +3300,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1045126070540865541</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,20 +3313,20 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-602992695011889152</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-833086724096028673</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,7 +3339,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-893162180492787716</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,33 +3365,33 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-663721804310122496</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,7 +3404,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-811342708061024256</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -3417,11 +3417,11 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-722677158112587776</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,11 +3495,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,7 +3508,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -3521,7 +3521,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -3534,7 +3534,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,20 +3547,20 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B240" t="n">
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-854766668387684352</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,20 +3573,20 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-855160087563907072</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-855212425251086337</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,7 +3599,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-864137650625753088</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,33 +3612,33 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-864465975068037122</t>
         </is>
       </c>
       <c r="B245" t="n">
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-864657619700658176</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-570999709160116224</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -3651,20 +3651,20 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-571255966727053312</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-736272987683426305</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-659011315088781312</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,11 +3690,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-659473740955189248</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -3703,63 +3703,63 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-864137650625753088</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-864465975068037122</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B253" t="n">
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-864657619700658176</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B254" t="n">
         <v>1</v>
       </c>
       <c r="C254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-880769643060842496</t>
+          <t>t-906773843066441728</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-906922961621454848</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-930445521671589888</t>
+          <t>t-906981528483364865</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-957965473316069376</t>
+          <t>t-906982446905876480</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,85 +3794,85 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-764130662836084739</t>
         </is>
       </c>
       <c r="B259" t="n">
         <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-1012441483654332417</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-572808490965733378</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-1033036271491461120</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,7 +3898,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,63 +3911,63 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-580101390820876288</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-848618580681912320</t>
+          <t>t-580474226571915265</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-848657153367953411</t>
+          <t>t-581395014502191104</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,7 +3976,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-848877245439594496</t>
+          <t>t-601384798897115138</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-860258475883937792</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,11 +4015,11 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -4028,50 +4028,50 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-878774409280016384</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-1047259835777990656</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,50 +4080,50 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-610843183715463168</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B282" t="n">
         <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B283" t="n">
         <v>1</v>
       </c>
       <c r="C283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-651424335614353409</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-651596952564572160</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,24 +4145,24 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-653702331221999616</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-612283618052825088</t>
+          <t>t-661127792231321600</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -4171,7 +4171,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-914224756555055104</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,24 +4184,24 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-634366408906768384</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-736405703838044160</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,20 +4249,20 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-761251305100902400</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,24 +4275,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,7 +4301,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-911704954636824576</t>
         </is>
       </c>
       <c r="B298" t="n">
@@ -4314,20 +4314,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-867110157813075968</t>
+          <t>t-998557475266859013</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-867380655289761792</t>
+          <t>t-999117713749495808</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,7 +4340,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-867711994765471750</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B301" t="n">
@@ -4353,11 +4353,11 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-867724212827545601</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4366,20 +4366,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-868084138674454528</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-868161755167547394</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-868563701057679360</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,33 +4405,33 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-869251443236249600</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-869321042807988224</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-869576732906532865</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-976481160363692032</t>
+          <t>t-925465361557975040</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,7 +4483,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-1054497487657021440</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B312" t="n">
@@ -4496,24 +4496,24 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -4522,7 +4522,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-738154348752953345</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,46 +4535,46 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-738363319199928321</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-738396040357761024</t>
+          <t>t-834760589746569216</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-738456086156443648</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-738474348290277376</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B319" t="n">
@@ -4587,37 +4587,37 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-744360846420107265</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>0</v>
@@ -4626,59 +4626,59 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-1034597062573211651</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-913905079392047105</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-998557475266859013</t>
+          <t>t-999404160775872512</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-999117713749495808</t>
+          <t>t-1041752836835614720</t>
         </is>
       </c>
       <c r="B326" t="n">
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-904025443510214656</t>
+          <t>t-1042065710745309186</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,11 +4691,11 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-904025763938217984</t>
+          <t>t-1043080309376466944</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -4704,7 +4704,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-904026823356506112</t>
+          <t>t-1043179210905464832</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,7 +4717,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-779013669589884928</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,7 +4730,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-779066799077851136</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-912723744195596289</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,20 +4756,20 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-996488939933401088</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,24 +4782,24 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -4808,7 +4808,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-661802861446209536</t>
         </is>
       </c>
       <c r="B337" t="n">
@@ -4821,7 +4821,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-1051696567651106816</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,37 +4834,37 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1049947970664304640</t>
+          <t>t-1051874637942947840</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-850470638624133120</t>
+          <t>t-589443945773535232</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -4873,20 +4873,20 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-931216910477414400</t>
         </is>
       </c>
       <c r="B342" t="n">
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-848529770258288642</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-849301263959420929</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,46 +4925,46 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-1047617270736936962</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B346" t="n">
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-580349296182198273</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-542806015075713026</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-955738647663431681</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,37 +4977,37 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-955740876436844544</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-956201264915910656</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-989520576460001280</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C352" t="n">
         <v>0</v>
@@ -5016,24 +5016,24 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-650288114116730880</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-773146400129441792</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
         <v>0</v>
@@ -5042,50 +5042,50 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B355" t="n">
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B356" t="n">
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-734290700469166080</t>
         </is>
       </c>
       <c r="B357" t="n">
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>0</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-869830075268685825</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,24 +5107,24 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-520483074711486464</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-520499948983304192</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -5133,33 +5133,33 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-520513908759859200</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B363" t="n">
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1057306605287550976</t>
+          <t>t-787588682731626496</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,20 +5172,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1057548272053698560</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-901639048464388096</t>
+          <t>t-894594064582094852</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,37 +5198,37 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-901662243594612737</t>
+          <t>t-954338199610019841</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-901835893232857088</t>
+          <t>t-954407598069084160</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-901991202857377792</t>
+          <t>t-954798702530412546</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>1</v>
@@ -5237,37 +5237,37 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-902096694422228992</t>
+          <t>t-955111272852414464</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-902156696407216129</t>
+          <t>t-955374632034594816</t>
         </is>
       </c>
       <c r="B371" t="n">
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-902188288789925889</t>
+          <t>t-955380505121259520</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5276,59 +5276,59 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-902258946840313856</t>
+          <t>t-955409675251482624</t>
         </is>
       </c>
       <c r="B373" t="n">
         <v>1</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-902339386959958016</t>
+          <t>t-955739643634421760</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-902474134315302912</t>
+          <t>t-955742558189162496</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-955766281730445313</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>0</v>
       </c>
       <c r="C376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-586533262912315392</t>
+          <t>t-955807241533304833</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,33 +5341,33 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-956101750120857601</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-956220929067151360</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-956413340225589248</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,37 +5380,37 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-956438932681523200</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-955489372547305472</t>
+          <t>t-956447631714279424</t>
         </is>
       </c>
       <c r="B382" t="n">
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-955838886860787712</t>
+          <t>t-956464588559671297</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
         <v>0</v>
@@ -5419,20 +5419,20 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-956166896012939265</t>
+          <t>t-956513066228834304</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B385" t="n">
@@ -5445,7 +5445,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-676099835372654592</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,7 +5458,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-549859905231142914</t>
         </is>
       </c>
       <c r="B387" t="n">
@@ -5471,46 +5471,46 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-712209810511564800</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-955738647663431681</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-955740876436844544</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-956201264915910656</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,7 +5523,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-960182659325493248</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B392" t="n">
@@ -5536,11 +5536,11 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
         <v>0</v>
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1049943076859461632</t>
+          <t>t-837620098416459776</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-608655874496692224</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,11 +5575,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-609338660572536832</t>
+          <t>t-1034815239219539970</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-609783303168782337</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,24 +5601,24 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-610483675487203328</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-653264904581984256</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -5627,37 +5627,37 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-653992755027386368</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-770572723777105920</t>
+          <t>t-764514429736132609</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-834770863664795650</t>
+          <t>t-764618483195838464</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C402" t="n">
         <v>1</v>
@@ -5666,128 +5666,128 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-894594064582094852</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-962342450219094016</t>
+          <t>t-583674889480962049</t>
         </is>
       </c>
       <c r="B404" t="n">
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-962358038081523713</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-962393573927870466</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B406" t="n">
         <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-981811338774183936</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-982165823350423552</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-1052528388341149696</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-1057165607152562176</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-652506002957422592</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-712209810511564800</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C412" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-571286359673053184</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,20 +5809,20 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-571344417145135105</t>
+          <t>t-591228165827260416</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-823181666160144384</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,20 +5848,20 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B418" t="n">
@@ -5874,7 +5874,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,11 +5900,11 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C421" t="n">
         <v>1</v>
@@ -5913,20 +5913,20 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-564785591561506817</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,20 +5939,20 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B424" t="n">
         <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-987343892633747456</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,20 +5965,20 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-570990543225950209</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B427" t="n">
@@ -5991,46 +5991,46 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-1050165943790460929</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-594811114661228544</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-865160167155003392</t>
+          <t>t-595126127343116288</t>
         </is>
       </c>
       <c r="B430" t="n">
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-869260706524397568</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B431" t="n">
@@ -6043,24 +6043,24 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-613277694457856004</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>1</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-862635910306856964</t>
+          <t>t-873880943819460609</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C434" t="n">
         <v>0</v>
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-862992827487309824</t>
+          <t>t-874034580747104259</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,46 +6095,46 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-863003997464080384</t>
+          <t>t-874852269765931008</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-863121747360571392</t>
+          <t>t-880840050245849088</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B439" t="n">
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-583486848426713088</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
         <v>1</v>
@@ -6160,20 +6160,20 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-586494775089442816</t>
+          <t>t-884366275937521664</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,11 +6186,11 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C443" t="n">
         <v>1</v>
@@ -6199,7 +6199,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-740216200379158528</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-740233298862080000</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,33 +6225,33 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-740234615814819840</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>1</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-740250007081766912</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-867803560930627585</t>
+          <t>t-740302081416962049</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,7 +6264,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-868025997010055168</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B449" t="n">
@@ -6277,11 +6277,11 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-868097086021095425</t>
+          <t>t-1008697922366689285</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C450" t="n">
         <v>1</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-869075299467763714</t>
+          <t>t-650407824212660224</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,7 +6303,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-994824289349242881</t>
+          <t>t-650415832523255809</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,7 +6316,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-994897053523341314</t>
+          <t>t-650581180757073921</t>
         </is>
       </c>
       <c r="B453" t="n">
@@ -6329,11 +6329,11 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-995019257841889281</t>
+          <t>t-650584856162926592</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C454" t="n">
         <v>0</v>
@@ -6342,7 +6342,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-995256568429064192</t>
+          <t>t-650605489492000769</t>
         </is>
       </c>
       <c r="B455" t="n">
@@ -6355,11 +6355,11 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-880072530329038848</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-907976446286680066</t>
+          <t>t-656869699980955649</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,46 +6381,46 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-908018109373730816</t>
+          <t>t-657672314465726464</t>
         </is>
       </c>
       <c r="B458" t="n">
         <v>1</v>
       </c>
       <c r="C458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-740216200379158528</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-740233298862080000</t>
+          <t>t-666556746308198401</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,7 +6433,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-740234615814819840</t>
+          <t>t-671784280259866624</t>
         </is>
       </c>
       <c r="B462" t="n">
@@ -6446,7 +6446,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-740250007081766912</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,59 +6459,59 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-740302081416962049</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B464" t="n">
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-652148120952803329</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-859792354395533312</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,11 +6524,11 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-860626885302202369</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
         <v>0</v>
@@ -6537,46 +6537,46 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-861365904025714688</t>
+          <t>t-715202576552169472</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-861657024731467783</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-861897864632578048</t>
+          <t>t-736808558038265858</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-862094425949917185</t>
+          <t>t-737207145662435328</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-862663540179701760</t>
+          <t>t-737378615814393856</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,20 +6602,20 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-737618316705964032</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-698444957653278721</t>
+          <t>t-737643792757587968</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-829095437466533888</t>
+          <t>t-737668431374389250</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,7 +6641,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-703191098403872769</t>
+          <t>t-737882738997530625</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,20 +6654,20 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-703191473269780480</t>
+          <t>t-738072611704430592</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-703218090671214592</t>
+          <t>t-738383058857021440</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,24 +6680,24 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-703248568765779969</t>
+          <t>t-1062323949680373760</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-703357904250757120</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-703380366254612480</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-703605156500381696</t>
+          <t>t-955134939699310592</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,50 +6732,50 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-952055483354972160</t>
+          <t>t-1006483455209766912</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-1006781895278055424</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-1006804114234322945</t>
         </is>
       </c>
       <c r="B487" t="n">
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-738019407536984064</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
         <v>0</v>
@@ -6784,11 +6784,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-884308996835991554</t>
+          <t>t-738062401308917760</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-933719239126642689</t>
+          <t>t-738968020773703680</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,11 +6810,11 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-738019407536984064</t>
+          <t>t-739102239302770689</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C491" t="n">
         <v>1</v>
@@ -6823,72 +6823,72 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-738062401308917760</t>
+          <t>t-739132972742418432</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-738968020773703680</t>
+          <t>t-739365982360178688</t>
         </is>
       </c>
       <c r="B493" t="n">
         <v>1</v>
       </c>
       <c r="C493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-739102239302770689</t>
+          <t>t-739454625393324032</t>
         </is>
       </c>
       <c r="B494" t="n">
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-739132972742418432</t>
+          <t>t-738250548865032192</t>
         </is>
       </c>
       <c r="B495" t="n">
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-739365982360178688</t>
+          <t>t-738751926372827136</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-739454625393324032</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,20 +6901,20 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-958391208602193920</t>
+          <t>t-897405884489506816</t>
         </is>
       </c>
       <c r="B498" t="n">
         <v>1</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-906057103172923392</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,20 +6927,20 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-743445326611251200</t>
         </is>
       </c>
       <c r="B501" t="n">
@@ -6953,7 +6953,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-897405884489506816</t>
+          <t>t-775906484295204864</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,24 +6966,24 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-740666936263118848</t>
+          <t>t-795263551388663808</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-960991499604328448</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
         <v>1</v>
@@ -6992,24 +6992,24 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-754249103434022912</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-760176866099601408</t>
+          <t>t-836581914320506880</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C506" t="n">
         <v>1</v>
@@ -7018,59 +7018,59 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-766238666905747456</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-827575866729361408</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,7 +7083,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-859444598309097473</t>
         </is>
       </c>
       <c r="B512" t="n">
@@ -7096,24 +7096,24 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-855547644516732928</t>
+          <t>t-859536182866317312</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-855563578274754560</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C514" t="n">
         <v>1</v>
@@ -7122,11 +7122,11 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
         <v>1</v>
@@ -7135,63 +7135,63 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-940225923332403204</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
         <v>1</v>
@@ -7200,72 +7200,72 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-940273268677849088</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-953922137156411392</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B524" t="n">
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B525" t="n">
         <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-981841496902197248</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,37 +7291,37 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B529" t="n">
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-1043053295298899968</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C530" t="n">
         <v>1</v>
@@ -7330,85 +7330,85 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-1043072721595375616</t>
+          <t>t-500549350234554368</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1043145723687129090</t>
+          <t>t-549142719973445632</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-565143761131671552</t>
+          <t>t-549750044099088384</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-549858427787153410</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-549861279825817601</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-550997963590610944</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-551059868657152002</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,24 +7421,24 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-551164779646038017</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-532541340023017473</t>
+          <t>t-552328482282553344</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
         <v>1</v>
@@ -7447,76 +7447,76 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-549142719973445632</t>
+          <t>t-552381413899898881</t>
         </is>
       </c>
       <c r="B540" t="n">
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-549750044099088384</t>
+          <t>t-552754433155928064</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-549858427787153410</t>
+          <t>t-552860760968138752</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-549861279825817601</t>
+          <t>t-552960294360977408</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-553046169975148544</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-553111267569713154</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,37 +7525,37 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-553535305601392640</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
         <v>0</v>
@@ -7564,20 +7564,20 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B549" t="n">
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,37 +7590,37 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>1</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>0</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-695965752088723456</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
         <v>1</v>
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-695968588012752896</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,50 +7642,50 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B555" t="n">
         <v>0</v>
       </c>
       <c r="C555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B556" t="n">
         <v>0</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B557" t="n">
         <v>0</v>
       </c>
       <c r="C557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-788186519307563010</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,89 +7707,89 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-875288006172831744</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-927545172220694528</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-927729703523270657</t>
         </is>
       </c>
       <c r="B562" t="n">
         <v>1</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-927758071429939200</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-676377478168862721</t>
+          <t>t-927766985911312384</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-677293991713308673</t>
+          <t>t-928074662826745856</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>1</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-678077110070566912</t>
+          <t>t-928076971581378560</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>0</v>
@@ -7798,20 +7798,20 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-928123673919348741</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-928519035205095424</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,11 +7824,11 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-928568681545728000</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>1</v>
@@ -7837,20 +7837,20 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-928619706227023872</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-798050241861840896</t>
+          <t>t-928900021390577664</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,20 +7863,20 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-798099061475684352</t>
+          <t>t-928909590627942400</t>
         </is>
       </c>
       <c r="B572" t="n">
         <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-806863559212679168</t>
+          <t>t-928993443942105088</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,7 +7889,7 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-852554541803417600</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B574" t="n">
@@ -7902,24 +7902,24 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,7 +7928,7 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,33 +7941,33 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-927545172220694528</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-927729703523270657</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B579" t="n">
         <v>1</v>
       </c>
       <c r="C579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-927758071429939200</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,46 +7980,46 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-927766985911312384</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-928074662826745856</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-928076971581378560</t>
+          <t>t-650617914194694144</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-928123673919348741</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,11 +8032,11 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-928519035205095424</t>
+          <t>t-777605888655761409</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
         <v>1</v>
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-928568681545728000</t>
+          <t>t-778041943855026178</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-928619706227023872</t>
+          <t>t-778431677144018944</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,11 +8071,11 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-928900021390577664</t>
+          <t>t-782517721938300928</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -8084,7 +8084,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-928909590627942400</t>
+          <t>t-806390063244410880</t>
         </is>
       </c>
       <c r="B589" t="n">
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-928993443942105088</t>
+          <t>t-806499176066453505</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,33 +8110,33 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-827493643661381632</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-832449416082579456</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B593" t="n">
@@ -8149,37 +8149,37 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>0</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-965395788435046400</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-985916719981060097</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C596" t="n">
         <v>1</v>
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-985984041508720641</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-536372518622212096</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,46 +8214,46 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-536830333530804225</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-536843974086897664</t>
         </is>
       </c>
       <c r="B600" t="n">
         <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-546829406539243520</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-1041319973430255616</t>
+          <t>t-546846288554500096</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-706517570451427328</t>
+          <t>t-547603292180578305</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,11 +8279,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-547621920103862272</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>1</v>
@@ -8292,7 +8292,7 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-823758777857908736</t>
+          <t>t-547636294059184128</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,7 +8305,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-823809561622695937</t>
+          <t>t-547637054578769920</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-823868915621052416</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-824113067696930816</t>
+          <t>t-585340196557692928</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,11 +8344,11 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-824154025864167424</t>
+          <t>t-645905787584274433</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C609" t="n">
         <v>1</v>
@@ -8357,24 +8357,24 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-824160171534467072</t>
+          <t>t-645928760433246209</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-825053893184753664</t>
+          <t>t-645952188204761088</t>
         </is>
       </c>
       <c r="B611" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C611" t="n">
         <v>0</v>
@@ -8383,7 +8383,7 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-825136994833428480</t>
+          <t>t-646249606892797957</t>
         </is>
       </c>
       <c r="B612" t="n">
@@ -8396,46 +8396,46 @@
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-825930607427416064</t>
+          <t>t-675871788564283392</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-838217823608438784</t>
+          <t>t-708275780988473345</t>
         </is>
       </c>
       <c r="B614" t="n">
         <v>1</v>
       </c>
       <c r="C614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-709001129091174403</t>
         </is>
       </c>
       <c r="B615" t="n">
         <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-709281433978687488</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,20 +8448,20 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-718078465698881536</t>
         </is>
       </c>
       <c r="B617" t="n">
         <v>0</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-976046458834116609</t>
+          <t>t-718738885862232064</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-718790966774083584</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,7 +8487,7 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-573022010348982272</t>
+          <t>t-727080149770866688</t>
         </is>
       </c>
       <c r="B620" t="n">
@@ -8500,37 +8500,37 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-581777426016956417</t>
+          <t>t-756020759726727169</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-784943243364487168</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C623" t="n">
         <v>1</v>
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-785071804276576256</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,11 +8552,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-786121283209564160</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-789409624138985476</t>
+          <t>t-787201722892455936</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-789409631646785537</t>
+          <t>t-787228854490243072</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,20 +8591,20 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-794478910901624834</t>
+          <t>t-792955986956824576</t>
         </is>
       </c>
       <c r="B628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-794502218061750272</t>
+          <t>t-793029205319491584</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-793055195232018432</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,20 +8695,20 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B636" t="n">
         <v>1</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,11 +8734,11 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639" t="n">
         <v>1</v>
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,7 +8760,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,11 +8773,11 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-845583720950128640</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C642" t="n">
         <v>1</v>
@@ -8786,11 +8786,11 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-960348165114273792</t>
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C643" t="n">
         <v>1</v>
@@ -8799,11 +8799,11 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-529909835525939202</t>
         </is>
       </c>
       <c r="B644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C644" t="n">
         <v>1</v>
@@ -8812,24 +8812,24 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-965199790966415360</t>
+          <t>t-783478326421704704</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-529909835525939202</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C646" t="n">
         <v>1</v>
@@ -8838,7 +8838,7 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-578162074741661696</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B647" t="n">
@@ -8851,11 +8851,11 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-839656521227091969</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-555289784240054272</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,11 +8877,11 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-555290912268750848</t>
+          <t>t-535750936824528896</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C650" t="n">
         <v>1</v>
@@ -8890,11 +8890,11 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-555447424768954368</t>
+          <t>t-535750956848140288</t>
         </is>
       </c>
       <c r="B651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="n">
         <v>1</v>
@@ -8903,20 +8903,20 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-535751324143341568</t>
         </is>
       </c>
       <c r="B652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-1032843605826621440</t>
+          <t>t-535754365856776193</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-696949735576489985</t>
+          <t>t-535786478451048448</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,37 +8942,37 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-697001638108598272</t>
+          <t>t-555289784240054272</t>
         </is>
       </c>
       <c r="B655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-791933405902442497</t>
+          <t>t-555290912268750848</t>
         </is>
       </c>
       <c r="B656" t="n">
         <v>0</v>
       </c>
       <c r="C656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-555323393890058240</t>
+          <t>t-555447424768954368</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C657" t="n">
         <v>1</v>
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-555327376440053760</t>
+          <t>t-676067082081976320</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,24 +8994,24 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-801391859083988993</t>
+          <t>t-788398448508739585</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-829520315575177217</t>
+          <t>t-788457694453637120</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
         <v>1</v>
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-836878014587744257</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,11 +9033,11 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-919610638351003649</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C662" t="n">
         <v>0</v>
@@ -9046,20 +9046,20 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-919611818183503872</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B663" t="n">
         <v>1</v>
       </c>
       <c r="C663" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-919614704967757825</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,7 +9072,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-919712337681985537</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-919728404907167744</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,7 +9098,7 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-919751765871886336</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B667" t="n">
@@ -9111,20 +9111,20 @@
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-919766847666274304</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B668" t="n">
         <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-919943414766063617</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B669" t="n">
@@ -9137,20 +9137,20 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-920179252292739072</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-920416544319926272</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,20 +9163,20 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-673010347008110593</t>
+          <t>t-983954928610697216</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-961453081543065600</t>
+          <t>t-666809196977909760</t>
         </is>
       </c>
       <c r="B675" t="n">
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-694769781573050368</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,11 +9228,11 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-817285829861093377</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
         <v>1</v>
@@ -9241,20 +9241,20 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B678" t="n">
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,37 +9267,37 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-544711019629907968</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
         <v>1</v>
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-544769671799394304</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-544813894037147648</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,7 +9332,7 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-545169541052243968</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B685" t="n">
@@ -9345,7 +9345,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-798752071239409665</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B686" t="n">
@@ -9358,7 +9358,7 @@
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,20 +9371,20 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-670770027604213760</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B688" t="n">
         <v>1</v>
       </c>
       <c r="C688" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,11 +9397,11 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-715026472285708288</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
         <v>1</v>
@@ -9410,37 +9410,37 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-540776934658277377</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B692" t="n">
         <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-779194196724887553</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,20 +9462,20 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-930711486019854336</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-931775243361779712</t>
+          <t>t-801652200724451332</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,20 +9488,20 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-567587172367077376</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B698" t="n">
@@ -9514,7 +9514,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-666482399069343745</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,24 +9553,24 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -9579,33 +9579,33 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-557074144505114625</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-550867696435200000</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-550870336418234368</t>
+          <t>t-839272244895309824</t>
         </is>
       </c>
       <c r="B706" t="n">
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-550963305326862336</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,7 +9631,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-551099005388599297</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B708" t="n">
@@ -9644,7 +9644,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-551184362054500352</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,20 +9657,20 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-741496457824374784</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,20 +9696,20 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-761430337377349632</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-946271534502395905</t>
+          <t>t-805321168580395008</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,11 +9722,11 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-870645957704265729</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C715" t="n">
         <v>1</v>
@@ -9735,7 +9735,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-805321168580395008</t>
+          <t>t-870651401311014912</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,20 +9748,20 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-870645957704265729</t>
+          <t>t-642718104875732992</t>
         </is>
       </c>
       <c r="B717" t="n">
         <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-870651401311014912</t>
+          <t>t-702366811925438465</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-950713527123066881</t>
+          <t>t-729241413867556864</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-845628167855357953</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,20 +9800,20 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B721" t="n">
         <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-677428252881784832</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,24 +9839,24 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-829258775257346048</t>
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C725" t="n">
         <v>1</v>
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-568062001399746560</t>
+          <t>t-829280839464845312</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,7 +9878,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-829291437292396544</t>
         </is>
       </c>
       <c r="B727" t="n">
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-812509278762242048</t>
+          <t>t-829294998201970688</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-786434119072821249</t>
+          <t>t-829512724761620480</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-940573035752386560</t>
+          <t>t-964014223184375808</t>
         </is>
       </c>
       <c r="B731" t="n">
